--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/56_Manisa_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/56_Manisa_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCE79F7-1185-4EC1-ACDA-85504F987FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D51A667-432B-4677-99CC-A7EDD90B6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{35DB166B-47E0-41BB-9370-15F2558C06F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{F5D4D71E-D31C-4478-8ABD-0B4A141D4EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -805,13 +805,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{7EE241E0-FABE-4459-910F-CB3C97D8CCBF}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3A25FED3-3E65-4D9D-980D-363C06F4157B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A5A0A311-D69A-421E-B997-E7750A368722}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{A911988E-4552-4957-97C9-C780FAA08783}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{45A09D9C-06E6-400A-B8ED-46B2A35040C1}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{1AAEA354-822F-4C77-8954-F682815CD944}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{57604A5C-13E9-4C38-A0C3-33257ABABC17}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CDFA8B8E-1919-440E-99D6-8DF58CA50FBC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0597E5FE-7036-478B-A749-CA542CE6DCE8}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{6E5B6747-FDE1-406A-B004-DFC6B026B172}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{616FB715-811D-4A1D-93AF-8CF90A150B17}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{30F697DF-20B7-42E3-8DA5-10645F7D7610}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A4BD1AC8-A627-4A27-AA83-3E987E992513}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{2A1610DF-D766-41F7-9FE8-25BFFAB24166}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1C27C3-53B8-42FA-9D61-806416C25D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A34AB7F-2DAD-44E7-83EF-B567A57FB3E1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2492,7 +2492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A789FBCD-6C18-43DC-A123-53B7257844E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466D2009-6CAB-4097-97DF-4FD2FD707271}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3806,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCBF08F-235A-4054-A6F4-45C12278DC25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01727192-44D6-4D76-8CBF-655894B8E5AE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DD2BB2-4297-45E6-AEBD-2BF51D6ADDFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC32C2-451A-45E7-9E33-9E9CBB9177A7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6430,7 +6430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF51985-9B56-4B68-A14F-5EAB81E2381C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FA385A-E035-4112-A09F-33E24F924ED5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7733,7 +7733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476B392A-1FA3-4DE3-B97D-AB8CEFD2F80F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC46BF81-9A26-4785-92CB-E4024835D0F4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
